--- a/biology/Médecine/Muscle_court_adducteur/Muscle_court_adducteur.xlsx
+++ b/biology/Médecine/Muscle_court_adducteur/Muscle_court_adducteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court adducteur (ou muscle deuxième adducteur) est un muscle du membre inférieur situé dans la cuisse. Il est situé dans plan intermédiaire de la loge fémorale médiale.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court adducteur est un muscle triangulaire qui relie l'os coxal au fémur. Il se situe dans le plan intermédiaire de la loge fémorale médiale entre le muscle long adducteur et le muscle troisième adducteur.
 </t>
@@ -542,7 +556,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court adducteur se fixe sur la face antérieure du pubis et sur la partie supérieure de la branche ischio-pubienne sous l'origine des faisceau supérieur et moyen du muscle troisième adducteur.
 </t>
@@ -573,7 +589,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court adducteur se déploie en éventail en bas et en dehors en se divisant en deux faisceaux supérieur et inférieur en direction du bord postérieur du fémur.
 </t>
@@ -604,7 +622,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le faisceau supérieur  s'insère entre les lèvres médiale et latérale de la trifurcation de la ligne âpre en dehors de la ligne pectinéale du fémur.
 Le faisceau inférieur s'insère entre les deux lèvres de la partie moyenne de la partie moyenne de la ligne âpre en dessous de la ligne pectinéale du fémur
@@ -636,7 +656,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  muscle court adducteur est innervé par les rameaux antérieur et postérieur du nerf obturateur.
 </t>
@@ -667,7 +689,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  muscle court adducteur est vascularisé par les branches perforantes de l'artère obturatrice.
 </t>
@@ -698,7 +722,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  muscle court adducteur est adducteur et rotateur externe de la cuisse.
 </t>
@@ -729,7 +755,9 @@
           <t>Antagonistes</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles fessiers et le muscle pyramidal du bassin.
 </t>
